--- a/Data/052018/phancong.xlsx
+++ b/Data/052018/phancong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9F7573B-CE3E-44E1-8101-CFD220C78C7A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{198392FA-BB49-4087-BD5E-9783802482B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/052018/phancong.xlsx
+++ b/Data/052018/phancong.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{198392FA-BB49-4087-BD5E-9783802482B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C757601-34F6-46F3-8906-60C8BBD3C264}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
   <si>
     <t>x01593</t>
   </si>
@@ -31,9 +31,6 @@
     <t>x05605</t>
   </si>
   <si>
-    <t>hai-tien</t>
-  </si>
-  <si>
     <t>minh-duc</t>
   </si>
   <si>
@@ -44,6 +41,42 @@
   </si>
   <si>
     <t>duc-cuong</t>
+  </si>
+  <si>
+    <t>nha</t>
+  </si>
+  <si>
+    <t>*-Minh-Đức</t>
+  </si>
+  <si>
+    <t>*-minh</t>
+  </si>
+  <si>
+    <t>*-Minh</t>
+  </si>
+  <si>
+    <t>Minh-Cuong</t>
+  </si>
+  <si>
+    <t>*-Cuong</t>
+  </si>
+  <si>
+    <t>minh-Cuong</t>
+  </si>
+  <si>
+    <t>Minh-Cuong-Đức</t>
+  </si>
+  <si>
+    <t>Hai-Đức</t>
+  </si>
+  <si>
+    <t>*-Hai</t>
+  </si>
+  <si>
+    <t>Hai-Tien</t>
+  </si>
+  <si>
+    <t>minh-duc-Tien</t>
   </si>
 </sst>
 </file>
@@ -53,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +111,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,16 +140,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,24 +431,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -417,8 +459,11 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43221</v>
       </c>
@@ -426,170 +471,266 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43222</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43223</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43224</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43225</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43226</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43227</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43228</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43229</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43230</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43231</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43232</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43233</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43234</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43235</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43236</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43237</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43238</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43239</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43240</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43241</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>5</v>
+      <c r="B22" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,7 +738,7 @@
         <v>43242</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -606,71 +747,97 @@
       <c r="A24" s="3">
         <v>43243</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>5</v>
+      <c r="B24" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43244</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>5</v>
+      <c r="B25" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43245</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43246</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43247</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43248</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43249</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43250</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
@@ -678,9 +845,15 @@
       <c r="A32" s="3">
         <v>43251</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/052018/phancong.xlsx
+++ b/Data/052018/phancong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C757601-34F6-46F3-8906-60C8BBD3C264}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7460A23-4CF4-40DA-BFE3-D41C45BD6BE8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
   <si>
     <t>x01593</t>
   </si>
@@ -31,27 +31,9 @@
     <t>x05605</t>
   </si>
   <si>
-    <t>minh-duc</t>
-  </si>
-  <si>
-    <t>*-cuong</t>
-  </si>
-  <si>
-    <t>minh-tien</t>
-  </si>
-  <si>
-    <t>duc-cuong</t>
-  </si>
-  <si>
     <t>nha</t>
   </si>
   <si>
-    <t>*-Minh-Đức</t>
-  </si>
-  <si>
-    <t>*-minh</t>
-  </si>
-  <si>
     <t>*-Minh</t>
   </si>
   <si>
@@ -61,22 +43,31 @@
     <t>*-Cuong</t>
   </si>
   <si>
-    <t>minh-Cuong</t>
-  </si>
-  <si>
-    <t>Minh-Cuong-Đức</t>
-  </si>
-  <si>
-    <t>Hai-Đức</t>
-  </si>
-  <si>
     <t>*-Hai</t>
   </si>
   <si>
     <t>Hai-Tien</t>
   </si>
   <si>
-    <t>minh-duc-Tien</t>
+    <t>Hai-Duc</t>
+  </si>
+  <si>
+    <t>Minh-Cuong-Duc</t>
+  </si>
+  <si>
+    <t>*-Minh-Duc</t>
+  </si>
+  <si>
+    <t>Minh-Duc</t>
+  </si>
+  <si>
+    <t>Minh-Duc-Tien</t>
+  </si>
+  <si>
+    <t>Minh-Tien</t>
+  </si>
+  <si>
+    <t>Duc-Cuong</t>
   </si>
 </sst>
 </file>
@@ -434,10 +425,10 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -477,10 +468,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,13 +479,13 @@
         <v>43223</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,13 +493,13 @@
         <v>43224</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -516,13 +507,13 @@
         <v>43225</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,13 +521,13 @@
         <v>43226</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -544,10 +535,10 @@
         <v>43227</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -556,10 +547,10 @@
         <v>43228</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -568,10 +559,10 @@
         <v>43229</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -580,10 +571,10 @@
         <v>43230</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -592,13 +583,13 @@
         <v>43231</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,10 +597,10 @@
         <v>43232</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -618,13 +609,13 @@
         <v>43233</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,13 +623,13 @@
         <v>43234</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,11 +637,11 @@
         <v>43235</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,13 +649,13 @@
         <v>43236</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,10 +663,10 @@
         <v>43237</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -684,10 +675,10 @@
         <v>43238</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -696,13 +687,13 @@
         <v>43239</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,13 +701,13 @@
         <v>43240</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,35 +715,34 @@
         <v>43241</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43242</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43243</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,11 +750,11 @@
         <v>43244</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,13 +762,13 @@
         <v>43245</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,10 +776,10 @@
         <v>43246</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -798,10 +788,10 @@
         <v>43247</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -810,10 +800,10 @@
         <v>43248</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -822,13 +812,13 @@
         <v>43249</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -836,7 +826,7 @@
         <v>43250</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
@@ -846,13 +836,13 @@
         <v>43251</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/052018/phancong.xlsx
+++ b/Data/052018/phancong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7460A23-4CF4-40DA-BFE3-D41C45BD6BE8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4926998-DC5D-4572-ACD6-F0AB6FFE9374}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,15 +428,15 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
